--- a/other/input/outliers/baseline_outliers.xlsx
+++ b/other/input/outliers/baseline_outliers.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\GitHub\kenai-river-wqx-report-v2\other\input\outliers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd0dd052dcf49e10/Documents/GitHub_Local/kenai-river-wqx/other/input/outliers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F8EC38-7E24-41F5-94BC-CA8E09337C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{A0F8EC38-7E24-41F5-94BC-CA8E09337C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CA7A60D-0411-434B-90E9-10C94352ABA6}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="240" windowWidth="17350" windowHeight="8320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="22440" windowHeight="13530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baseline_outliers" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_2" localSheetId="0" hidden="1">baseline_outliers!$B$1:$C$2</definedName>
+    <definedName name="ExternalData_2" localSheetId="0" hidden="1">baseline_outliers!$B$1:$C$3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Arsenic</t>
   </si>
@@ -65,13 +65,25 @@
     <t>data_entry</t>
   </si>
   <si>
-    <t>observation is 15x greater than the next nearest observation</t>
-  </si>
-  <si>
     <t>BM 20230215</t>
   </si>
   <si>
     <t>characteristic_name</t>
+  </si>
+  <si>
+    <t>Lead</t>
+  </si>
+  <si>
+    <t>observation is 15x greater than the next nearest observation. Likely candidate for field or lab method error/contamination</t>
+  </si>
+  <si>
+    <t>KENAI_WQX-10000025_07/26/2005_13:40:00</t>
+  </si>
+  <si>
+    <t>observation is 4x greater than the next nearest observation. Likely candidate for field or lab method error/contamination</t>
+  </si>
+  <si>
+    <t>BM 20250129</t>
   </si>
 </sst>
 </file>
@@ -265,8 +277,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4F15A099-9FFA-47AA-878A-2CE356C46C92}" name="baseline_outliers__2" displayName="baseline_outliers__2" ref="B1:F2" tableType="queryTable" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="B1:F2" xr:uid="{4F15A099-9FFA-47AA-878A-2CE356C46C92}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4F15A099-9FFA-47AA-878A-2CE356C46C92}" name="baseline_outliers__2" displayName="baseline_outliers__2" ref="B1:F3" tableType="queryTable" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="B1:F3" xr:uid="{4F15A099-9FFA-47AA-878A-2CE356C46C92}"/>
   <tableColumns count="5">
     <tableColumn id="3" xr3:uid="{ADC68F72-90F6-40CA-AED8-53F50AF51C43}" uniqueName="3" name="activity_identifier" queryTableFieldId="3" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{46C38B06-A5B8-419D-81E6-A6BFDE486584}" uniqueName="4" name="characteristic_name" queryTableFieldId="4" dataDxfId="3"/>
@@ -541,24 +553,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B7F6F5F-1E83-4E18-9D60-F750BCAEA41B}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="44.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.81640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="34.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -566,7 +578,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
@@ -578,7 +590,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -589,10 +601,27 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/other/input/outliers/baseline_outliers.xlsx
+++ b/other/input/outliers/baseline_outliers.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd0dd052dcf49e10/Documents/GitHub_Local/kenai-river-wqx/other/input/outliers/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmeyer\Documents\github_local\kenai-river-wqx\other\input\outliers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{A0F8EC38-7E24-41F5-94BC-CA8E09337C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CA7A60D-0411-434B-90E9-10C94352ABA6}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="22440" windowHeight="13530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1176" yWindow="1176" windowWidth="22440" windowHeight="13536"/>
   </bookViews>
   <sheets>
     <sheet name="baseline_outliers" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_2" localSheetId="0" hidden="1">baseline_outliers!$B$1:$C$3</definedName>
+    <definedName name="ExternalData_2" localSheetId="0" hidden="1">baseline_outliers!$B$1:$C$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,18 +27,18 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{9D3BC626-7233-4425-AD51-53DE6E1012D6}" keepAlive="1" name="Query - baseline_outliers" description="Connection to the 'baseline_outliers' query in the workbook." type="5" refreshedVersion="8" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" keepAlive="1" name="Query - baseline_outliers" description="Connection to the 'baseline_outliers' query in the workbook." type="5" refreshedVersion="8" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=baseline_outliers;Extended Properties=&quot;&quot;" command="SELECT * FROM [baseline_outliers]"/>
   </connection>
-  <connection id="2" xr16:uid="{74F10300-8488-4616-9DB1-3291C196E96B}" keepAlive="1" name="Query - baseline_outliers (2)" description="Connection to the 'baseline_outliers (2)' query in the workbook." type="5" refreshedVersion="8" background="1" saveData="1">
+  <connection id="2" keepAlive="1" name="Query - baseline_outliers (2)" description="Connection to the 'baseline_outliers (2)' query in the workbook." type="5" refreshedVersion="8" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;baseline_outliers (2)&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [baseline_outliers (2)]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Arsenic</t>
   </si>
@@ -85,11 +84,20 @@
   <si>
     <t>BM 20250129</t>
   </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
+    <t>BM 20250130</t>
+  </si>
+  <si>
+    <t>KENAI_WQX-10000021_07/18/2000_09:30:00</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -227,7 +235,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_2" connectionId="2" xr16:uid="{51F871AA-A584-4FAA-A74F-4E222CB8C13A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="40" unboundColumnsRight="3">
     <queryTableFields count="5">
       <queryTableField id="3" name="activity_identifier" tableColumnId="3"/>
@@ -277,14 +285,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4F15A099-9FFA-47AA-878A-2CE356C46C92}" name="baseline_outliers__2" displayName="baseline_outliers__2" ref="B1:F3" tableType="queryTable" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="B1:F3" xr:uid="{4F15A099-9FFA-47AA-878A-2CE356C46C92}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="baseline_outliers__2" displayName="baseline_outliers__2" ref="B1:F4" tableType="queryTable" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="B1:F4"/>
   <tableColumns count="5">
-    <tableColumn id="3" xr3:uid="{ADC68F72-90F6-40CA-AED8-53F50AF51C43}" uniqueName="3" name="activity_identifier" queryTableFieldId="3" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{46C38B06-A5B8-419D-81E6-A6BFDE486584}" uniqueName="4" name="characteristic_name" queryTableFieldId="4" dataDxfId="3"/>
-    <tableColumn id="37" xr3:uid="{DA04A6D5-A2C8-419E-A672-1B7368D1A61E}" uniqueName="37" name="notes" queryTableFieldId="37" dataDxfId="2"/>
-    <tableColumn id="38" xr3:uid="{096E1AF4-131B-489D-A56C-F893ADEA9FF9}" uniqueName="38" name="data_entry" queryTableFieldId="38" dataDxfId="1"/>
-    <tableColumn id="39" xr3:uid="{F830B266-DD38-4265-A389-EFE0728F4DF9}" uniqueName="39" name="qa1" queryTableFieldId="39" dataDxfId="0"/>
+    <tableColumn id="3" uniqueName="3" name="activity_identifier" queryTableFieldId="3" dataDxfId="4"/>
+    <tableColumn id="4" uniqueName="4" name="characteristic_name" queryTableFieldId="4" dataDxfId="3"/>
+    <tableColumn id="37" uniqueName="37" name="notes" queryTableFieldId="37" dataDxfId="2"/>
+    <tableColumn id="38" uniqueName="38" name="data_entry" queryTableFieldId="38" dataDxfId="1"/>
+    <tableColumn id="39" uniqueName="39" name="qa1" queryTableFieldId="39" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -552,25 +560,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B7F6F5F-1E83-4E18-9D60-F750BCAEA41B}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="54.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="1"/>
+    <col min="4" max="4" width="34.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -590,7 +598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -607,7 +615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -622,6 +630,23 @@
       </c>
       <c r="E3" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/other/input/outliers/baseline_outliers.xlsx
+++ b/other/input/outliers/baseline_outliers.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmeyer\Documents\github_local\kenai-river-wqx\other\input\outliers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd0dd052dcf49e10/Documents/GitHub_Local/kwf/kenai-river-wqx/other/input/outliers/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_4716B12BE36C0629FBEDC3A35357712420817C01" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A83F760-DF5C-44E6-84F2-98F1BFB573D1}"/>
   <bookViews>
-    <workbookView xWindow="1176" yWindow="1176" windowWidth="22440" windowHeight="13536"/>
+    <workbookView xWindow="750" yWindow="2280" windowWidth="28290" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baseline_outliers" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_2" localSheetId="0" hidden="1">baseline_outliers!$B$1:$C$4</definedName>
+    <definedName name="ExternalData_2" localSheetId="0" hidden="1">baseline_outliers!$B$1:$C$7</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,18 +28,18 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="Query - baseline_outliers" description="Connection to the 'baseline_outliers' query in the workbook." type="5" refreshedVersion="8" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Query - baseline_outliers" description="Connection to the 'baseline_outliers' query in the workbook." type="5" refreshedVersion="8" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=baseline_outliers;Extended Properties=&quot;&quot;" command="SELECT * FROM [baseline_outliers]"/>
   </connection>
-  <connection id="2" keepAlive="1" name="Query - baseline_outliers (2)" description="Connection to the 'baseline_outliers (2)' query in the workbook." type="5" refreshedVersion="8" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" keepAlive="1" name="Query - baseline_outliers (2)" description="Connection to the 'baseline_outliers (2)' query in the workbook." type="5" refreshedVersion="8" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;baseline_outliers (2)&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [baseline_outliers (2)]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Arsenic</t>
   </si>
@@ -73,15 +74,9 @@
     <t>Lead</t>
   </si>
   <si>
-    <t>observation is 15x greater than the next nearest observation. Likely candidate for field or lab method error/contamination</t>
-  </si>
-  <si>
     <t>KENAI_WQX-10000025_07/26/2005_13:40:00</t>
   </si>
   <si>
-    <t>observation is 4x greater than the next nearest observation. Likely candidate for field or lab method error/contamination</t>
-  </si>
-  <si>
     <t>BM 20250129</t>
   </si>
   <si>
@@ -93,11 +88,44 @@
   <si>
     <t>KENAI_WQX-10000021_07/18/2000_09:30:00</t>
   </si>
+  <si>
+    <t>Zinc</t>
+  </si>
+  <si>
+    <t>observation is 4x greater than the next nearest observation at this site. Likely candidate for field or lab method error/contamination</t>
+  </si>
+  <si>
+    <t>observation is 15x greater than the next nearest observation at this site. Likely candidate for field or lab method error/contamination</t>
+  </si>
+  <si>
+    <t>observation is 10x greater than the next nearest observation at this site. Likely candidate for field or lab method error/contamination</t>
+  </si>
+  <si>
+    <t>BM 20250328</t>
+  </si>
+  <si>
+    <t>KENAI_WQX-10000027_07/17/2007_12:42:00</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>observation is 40x greater than the next nearest observation at this site. Likely candidate for field or lab method error/contamination</t>
+  </si>
+  <si>
+    <t>KENAI_WQX-KBL_t_74.0-2021-05-11-Total Mg</t>
+  </si>
+  <si>
+    <t>Magnesium</t>
+  </si>
+  <si>
+    <t>observation is 100x greater than the next nearest observation at this site. Likely candidate for field or lab method error/contamination</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -234,8 +262,12 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_2" connectionId="2" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="40" unboundColumnsRight="3">
     <queryTableFields count="5">
       <queryTableField id="3" name="activity_identifier" tableColumnId="3"/>
@@ -285,14 +317,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="baseline_outliers__2" displayName="baseline_outliers__2" ref="B1:F4" tableType="queryTable" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="B1:F4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="baseline_outliers__2" displayName="baseline_outliers__2" ref="B1:F7" tableType="queryTable" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="B1:F7" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="3" uniqueName="3" name="activity_identifier" queryTableFieldId="3" dataDxfId="4"/>
-    <tableColumn id="4" uniqueName="4" name="characteristic_name" queryTableFieldId="4" dataDxfId="3"/>
-    <tableColumn id="37" uniqueName="37" name="notes" queryTableFieldId="37" dataDxfId="2"/>
-    <tableColumn id="38" uniqueName="38" name="data_entry" queryTableFieldId="38" dataDxfId="1"/>
-    <tableColumn id="39" uniqueName="39" name="qa1" queryTableFieldId="39" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="activity_identifier" queryTableFieldId="3" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="characteristic_name" queryTableFieldId="4" dataDxfId="3"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" uniqueName="37" name="notes" queryTableFieldId="37" dataDxfId="2"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" uniqueName="38" name="data_entry" queryTableFieldId="38" dataDxfId="1"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" uniqueName="39" name="qa1" queryTableFieldId="39" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -560,25 +592,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="54.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.6640625" style="1"/>
+    <col min="4" max="4" width="34.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -598,7 +630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -609,44 +641,95 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
